--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed1/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.09939999999997</v>
+        <v>-20.91289999999996</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.585500000000004</v>
+        <v>-7.653600000000004</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.64920000000001</v>
+        <v>-22.64750000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.11589999999998</v>
+        <v>-20.32229999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.70980000000002</v>
+        <v>-22.60130000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.913699999999997</v>
+        <v>-8.599499999999997</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.416799999999994</v>
+        <v>-7.441999999999994</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.207599999999998</v>
+        <v>-6.027499999999995</v>
       </c>
     </row>
     <row r="13">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.0427</v>
+        <v>-22.17760000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.370799999999997</v>
+        <v>-8.34029999999999</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.352699999999992</v>
+        <v>-9.285599999999997</v>
       </c>
     </row>
     <row r="19">
@@ -704,12 +704,12 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.361999999999995</v>
+        <v>-8.537999999999993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.30199999999999</v>
+        <v>-20.44839999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -718,12 +718,12 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.022999999999991</v>
+        <v>-7.029399999999995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.20399999999999</v>
+        <v>-20.24609999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.3211</v>
+        <v>-7.288499999999999</v>
       </c>
     </row>
     <row r="27">
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.83909999999999</v>
+        <v>-21.85099999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.24489999999998</v>
+        <v>-21.20279999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.62939999999998</v>
+        <v>-21.8191</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -872,12 +872,12 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.688099999999997</v>
+        <v>-8.326399999999992</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.18829999999999</v>
+        <v>-21.15009999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -984,12 +984,12 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.202999999999998</v>
+        <v>-8.277299999999991</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.52099999999999</v>
+        <v>-20.37890000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.629899999999999</v>
+        <v>-7.5805</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.965899999999993</v>
+        <v>-8.374599999999988</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.196699999999996</v>
+        <v>-8.367299999999991</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.395700000000005</v>
+        <v>-7.526800000000005</v>
       </c>
     </row>
     <row r="44">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.9278</v>
+        <v>-21.83929999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.724799999999999</v>
+        <v>-7.590699999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.478699999999995</v>
+        <v>-7.700699999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.63719999999998</v>
+        <v>-21.61429999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.16169999999999</v>
+        <v>-22.2358</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.800599999999995</v>
+        <v>-7.886999999999997</v>
       </c>
     </row>
     <row r="55">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.66110000000003</v>
+        <v>-22.44210000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.58580000000002</v>
+        <v>-22.70310000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.22710000000002</v>
+        <v>-22.18550000000003</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1306,7 +1306,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.545199999999996</v>
+        <v>-8.345599999999994</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.697199999999999</v>
+        <v>-6.543799999999996</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.999599999999992</v>
+        <v>-7.064199999999994</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.45759999999999</v>
+        <v>-21.50020000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.31129999999999</v>
+        <v>-20.42269999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.72219999999998</v>
+        <v>-21.64229999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1502,12 +1502,12 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.6405</v>
+        <v>-7.745500000000003</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.39319999999999</v>
+        <v>-20.20799999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.992200000000004</v>
+        <v>-7.986500000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.247799999999998</v>
+        <v>-8.305899999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.314599999999999</v>
+        <v>-8.542900000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.56300000000002</v>
+        <v>-21.60640000000002</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.2363</v>
+        <v>-6.061499999999995</v>
       </c>
     </row>
     <row r="95">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.15950000000001</v>
+        <v>-22.25970000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
